--- a/SourceCode/dams/templates/BatStateU-FO-COL-28_Room Utilization_Rev. 03.xlsx
+++ b/SourceCode/dams/templates/BatStateU-FO-COL-28_Room Utilization_Rev. 03.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="43">
   <si>
     <t xml:space="preserve">  Reference No.: BatStateU-FO-COL-28</t>
   </si>
@@ -85,6 +85,9 @@
     <t>6:00 - 7:00</t>
   </si>
   <si>
+    <t>AM</t>
+  </si>
+  <si>
     <t>7:00 - 8:00</t>
   </si>
   <si>
@@ -98,6 +101,9 @@
   </si>
   <si>
     <t>11:00 - 12:00</t>
+  </si>
+  <si>
+    <t>PM</t>
   </si>
   <si>
     <t>12:00 - 1:00</t>
@@ -152,7 +158,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,13 +208,6 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -828,151 +827,151 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1551,8 +1550,8 @@
   <sheetPr/>
   <dimension ref="A1:V37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScalePageLayoutView="55" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="W26" sqref="W26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5714285714286" defaultRowHeight="15"/>
@@ -1747,7 +1746,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" ht="18" customHeight="1" spans="1:21">
+    <row r="6" ht="18" customHeight="1" spans="1:22">
       <c r="A6" s="11" t="s">
         <v>21</v>
       </c>
@@ -1771,8 +1770,11 @@
       <c r="S6" s="28"/>
       <c r="T6" s="10"/>
       <c r="U6" s="30"/>
-    </row>
-    <row r="7" ht="18" customHeight="1" spans="1:21">
+      <c r="V6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" ht="18" customHeight="1" spans="1:22">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="17"/>
@@ -1794,10 +1796,13 @@
       <c r="S7" s="28"/>
       <c r="T7" s="10"/>
       <c r="U7" s="30"/>
-    </row>
-    <row r="8" ht="18" customHeight="1" spans="1:21">
+      <c r="V7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" ht="18" customHeight="1" spans="1:22">
       <c r="A8" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="13"/>
@@ -1819,8 +1824,11 @@
       <c r="S8" s="31"/>
       <c r="T8" s="31"/>
       <c r="U8" s="31"/>
-    </row>
-    <row r="9" ht="18" customHeight="1" spans="1:21">
+      <c r="V8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" ht="18" customHeight="1" spans="1:22">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="17"/>
@@ -1842,10 +1850,13 @@
       <c r="S9" s="31"/>
       <c r="T9" s="31"/>
       <c r="U9" s="31"/>
-    </row>
-    <row r="10" ht="18" customHeight="1" spans="1:21">
+      <c r="V9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" ht="18" customHeight="1" spans="1:22">
       <c r="A10" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="13"/>
@@ -1867,8 +1878,11 @@
       <c r="S10" s="31"/>
       <c r="T10" s="31"/>
       <c r="U10" s="31"/>
-    </row>
-    <row r="11" ht="18" customHeight="1" spans="1:21">
+      <c r="V10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" ht="18" customHeight="1" spans="1:22">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="17"/>
@@ -1890,10 +1904,13 @@
       <c r="S11" s="31"/>
       <c r="T11" s="31"/>
       <c r="U11" s="31"/>
-    </row>
-    <row r="12" ht="18" customHeight="1" spans="1:21">
+      <c r="V11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" ht="18" customHeight="1" spans="1:22">
       <c r="A12" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="13"/>
@@ -1915,8 +1932,11 @@
       <c r="S12" s="31"/>
       <c r="T12" s="31"/>
       <c r="U12" s="31"/>
-    </row>
-    <row r="13" ht="18" customHeight="1" spans="1:21">
+      <c r="V12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" ht="18" customHeight="1" spans="1:22">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="17"/>
@@ -1938,10 +1958,13 @@
       <c r="S13" s="31"/>
       <c r="T13" s="31"/>
       <c r="U13" s="31"/>
-    </row>
-    <row r="14" ht="18" customHeight="1" spans="1:21">
+      <c r="V13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" ht="18" customHeight="1" spans="1:22">
       <c r="A14" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="13"/>
@@ -1963,8 +1986,11 @@
       <c r="S14" s="31"/>
       <c r="T14" s="31"/>
       <c r="U14" s="31"/>
-    </row>
-    <row r="15" ht="18" customHeight="1" spans="1:21">
+      <c r="V14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" ht="18" customHeight="1" spans="1:22">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="17"/>
@@ -1986,10 +2012,13 @@
       <c r="S15" s="31"/>
       <c r="T15" s="31"/>
       <c r="U15" s="31"/>
-    </row>
-    <row r="16" ht="18" customHeight="1" spans="1:21">
+      <c r="V15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" ht="18" customHeight="1" spans="1:22">
       <c r="A16" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="13"/>
@@ -2011,8 +2040,11 @@
       <c r="S16" s="31"/>
       <c r="T16" s="31"/>
       <c r="U16" s="31"/>
-    </row>
-    <row r="17" ht="18" customHeight="1" spans="1:21">
+      <c r="V16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" ht="18" customHeight="1" spans="1:22">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="17"/>
@@ -2034,10 +2066,13 @@
       <c r="S17" s="31"/>
       <c r="T17" s="31"/>
       <c r="U17" s="31"/>
-    </row>
-    <row r="18" ht="18" customHeight="1" spans="1:21">
+      <c r="V17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" ht="18" customHeight="1" spans="1:22">
       <c r="A18" s="11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="13"/>
@@ -2059,8 +2094,11 @@
       <c r="S18" s="31"/>
       <c r="T18" s="31"/>
       <c r="U18" s="31"/>
-    </row>
-    <row r="19" ht="18" customHeight="1" spans="1:21">
+      <c r="V18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" ht="18" customHeight="1" spans="1:22">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="17"/>
@@ -2080,14 +2118,17 @@
       <c r="Q19" s="18"/>
       <c r="R19" s="18"/>
       <c r="S19" s="32" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="T19" s="33"/>
       <c r="U19" s="34"/>
-    </row>
-    <row r="20" ht="18" customHeight="1" spans="1:21">
+      <c r="V19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" ht="18" customHeight="1" spans="1:22">
       <c r="A20" s="19" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B20" s="12"/>
       <c r="C20" s="13"/>
@@ -2109,8 +2150,11 @@
       <c r="S20" s="35"/>
       <c r="T20" s="36"/>
       <c r="U20" s="37"/>
-    </row>
-    <row r="21" ht="18" customHeight="1" spans="1:21">
+      <c r="V20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" ht="18" customHeight="1" spans="1:22">
       <c r="A21" s="21"/>
       <c r="B21" s="16"/>
       <c r="C21" s="17"/>
@@ -2130,14 +2174,17 @@
       <c r="Q21" s="22"/>
       <c r="R21" s="22"/>
       <c r="S21" s="38" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="T21" s="39"/>
       <c r="U21" s="40"/>
-    </row>
-    <row r="22" ht="18" customHeight="1" spans="1:21">
+      <c r="V21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" ht="18" customHeight="1" spans="1:22">
       <c r="A22" s="19" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B22" s="12"/>
       <c r="C22" s="13"/>
@@ -2157,12 +2204,15 @@
       <c r="Q22" s="20"/>
       <c r="R22" s="20"/>
       <c r="S22" s="41" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T22" s="42"/>
       <c r="U22" s="43"/>
-    </row>
-    <row r="23" ht="18" customHeight="1" spans="1:21">
+      <c r="V22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" ht="18" customHeight="1" spans="1:22">
       <c r="A23" s="21"/>
       <c r="B23" s="16"/>
       <c r="C23" s="17"/>
@@ -2182,14 +2232,17 @@
       <c r="Q23" s="22"/>
       <c r="R23" s="22"/>
       <c r="S23" s="44" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T23" s="45"/>
       <c r="U23" s="46"/>
-    </row>
-    <row r="24" ht="18" customHeight="1" spans="1:21">
+      <c r="V23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" ht="18" customHeight="1" spans="1:22">
       <c r="A24" s="19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="13"/>
@@ -2209,12 +2262,15 @@
       <c r="Q24" s="20"/>
       <c r="R24" s="20"/>
       <c r="S24" s="32" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="T24" s="33"/>
       <c r="U24" s="34"/>
-    </row>
-    <row r="25" ht="18" customHeight="1" spans="1:21">
+      <c r="V24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" ht="18" customHeight="1" spans="1:22">
       <c r="A25" s="21"/>
       <c r="B25" s="16"/>
       <c r="C25" s="17"/>
@@ -2236,10 +2292,13 @@
       <c r="S25" s="47"/>
       <c r="T25" s="48"/>
       <c r="U25" s="49"/>
-    </row>
-    <row r="26" ht="18" customHeight="1" spans="1:21">
+      <c r="V25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" ht="18" customHeight="1" spans="1:22">
       <c r="A26" s="19" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B26" s="12"/>
       <c r="C26" s="13"/>
@@ -2259,12 +2318,15 @@
       <c r="Q26" s="20"/>
       <c r="R26" s="20"/>
       <c r="S26" s="50" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="T26" s="51"/>
       <c r="U26" s="52"/>
-    </row>
-    <row r="27" ht="18" customHeight="1" spans="1:21">
+      <c r="V26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" ht="18" customHeight="1" spans="1:22">
       <c r="A27" s="21"/>
       <c r="B27" s="16"/>
       <c r="C27" s="17"/>
@@ -2284,14 +2346,17 @@
       <c r="Q27" s="22"/>
       <c r="R27" s="22"/>
       <c r="S27" s="53" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T27" s="54"/>
       <c r="U27" s="55"/>
-    </row>
-    <row r="28" ht="18" customHeight="1" spans="1:21">
+      <c r="V27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" ht="18" customHeight="1" spans="1:22">
       <c r="A28" s="19" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B28" s="12"/>
       <c r="C28" s="13"/>
@@ -2311,12 +2376,15 @@
       <c r="Q28" s="20"/>
       <c r="R28" s="20"/>
       <c r="S28" s="44" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T28" s="45"/>
       <c r="U28" s="46"/>
-    </row>
-    <row r="29" ht="18" customHeight="1" spans="1:21">
+      <c r="V28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" ht="18" customHeight="1" spans="1:22">
       <c r="A29" s="21"/>
       <c r="B29" s="16"/>
       <c r="C29" s="17"/>
@@ -2336,12 +2404,15 @@
       <c r="Q29" s="22"/>
       <c r="R29" s="22"/>
       <c r="S29" s="56" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="T29" s="57"/>
       <c r="U29" s="58"/>
-    </row>
-    <row r="30" ht="18" customHeight="1" spans="1:21">
+      <c r="V29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" ht="18" customHeight="1" spans="1:22">
       <c r="A30" s="19" t="s">
         <v>21</v>
       </c>
@@ -2365,8 +2436,11 @@
       <c r="S30" s="35"/>
       <c r="T30" s="36"/>
       <c r="U30" s="37"/>
-    </row>
-    <row r="31" ht="18" customHeight="1" spans="1:21">
+      <c r="V30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" ht="18" customHeight="1" spans="1:22">
       <c r="A31" s="21"/>
       <c r="B31" s="16"/>
       <c r="C31" s="17"/>
@@ -2386,14 +2460,17 @@
       <c r="Q31" s="22"/>
       <c r="R31" s="22"/>
       <c r="S31" s="38" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="T31" s="39"/>
       <c r="U31" s="40"/>
-    </row>
-    <row r="32" ht="18" customHeight="1" spans="1:21">
+      <c r="V31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" ht="18" customHeight="1" spans="1:22">
       <c r="A32" s="19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B32" s="12"/>
       <c r="C32" s="13"/>
@@ -2413,12 +2490,15 @@
       <c r="Q32" s="20"/>
       <c r="R32" s="20"/>
       <c r="S32" s="41" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="T32" s="42"/>
       <c r="U32" s="43"/>
-    </row>
-    <row r="33" ht="18" customHeight="1" spans="1:21">
+      <c r="V32" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" ht="18" customHeight="1" spans="1:22">
       <c r="A33" s="21"/>
       <c r="B33" s="16"/>
       <c r="C33" s="17"/>
@@ -2438,10 +2518,13 @@
       <c r="Q33" s="22"/>
       <c r="R33" s="22"/>
       <c r="S33" s="44" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T33" s="45"/>
       <c r="U33" s="46"/>
+      <c r="V33" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="34" ht="18" customHeight="1" spans="22:22">
       <c r="V34" s="59"/>

--- a/SourceCode/dams/templates/BatStateU-FO-COL-28_Room Utilization_Rev. 03.xlsx
+++ b/SourceCode/dams/templates/BatStateU-FO-COL-28_Room Utilization_Rev. 03.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="43">
   <si>
     <t xml:space="preserve">  Reference No.: BatStateU-FO-COL-28</t>
   </si>
@@ -1548,10 +1548,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V37"/>
+  <dimension ref="A1:W37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="W26" sqref="W26"/>
+      <selection activeCell="V18" sqref="V18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5714285714286" defaultRowHeight="15"/>
@@ -1746,7 +1746,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" ht="18" customHeight="1" spans="1:22">
+    <row r="6" ht="18" customHeight="1" spans="1:23">
       <c r="A6" s="11" t="s">
         <v>21</v>
       </c>
@@ -1773,8 +1773,11 @@
       <c r="V6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" ht="18" customHeight="1" spans="1:22">
+      <c r="W6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" ht="18" customHeight="1" spans="1:23">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="17"/>
@@ -1799,8 +1802,11 @@
       <c r="V7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" ht="18" customHeight="1" spans="1:22">
+      <c r="W7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" ht="18" customHeight="1" spans="1:23">
       <c r="A8" s="11" t="s">
         <v>23</v>
       </c>
@@ -1827,8 +1833,11 @@
       <c r="V8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" ht="18" customHeight="1" spans="1:22">
+      <c r="W8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" ht="18" customHeight="1" spans="1:23">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="17"/>
@@ -1853,8 +1862,11 @@
       <c r="V9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" ht="18" customHeight="1" spans="1:22">
+      <c r="W9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" ht="18" customHeight="1" spans="1:23">
       <c r="A10" s="11" t="s">
         <v>24</v>
       </c>
@@ -1881,8 +1893,11 @@
       <c r="V10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" ht="18" customHeight="1" spans="1:22">
+      <c r="W10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" ht="18" customHeight="1" spans="1:23">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="17"/>
@@ -1907,8 +1922,11 @@
       <c r="V11" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" ht="18" customHeight="1" spans="1:22">
+      <c r="W11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" ht="18" customHeight="1" spans="1:23">
       <c r="A12" s="11" t="s">
         <v>25</v>
       </c>
@@ -1935,8 +1953,11 @@
       <c r="V12" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" ht="18" customHeight="1" spans="1:22">
+      <c r="W12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" ht="18" customHeight="1" spans="1:23">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="17"/>
@@ -1961,8 +1982,11 @@
       <c r="V13" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" ht="18" customHeight="1" spans="1:22">
+      <c r="W13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" ht="18" customHeight="1" spans="1:23">
       <c r="A14" s="11" t="s">
         <v>26</v>
       </c>
@@ -1989,8 +2013,11 @@
       <c r="V14" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" ht="18" customHeight="1" spans="1:22">
+      <c r="W14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" ht="18" customHeight="1" spans="1:23">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="17"/>
@@ -2015,8 +2042,11 @@
       <c r="V15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="16" ht="18" customHeight="1" spans="1:22">
+      <c r="W15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" ht="18" customHeight="1" spans="1:23">
       <c r="A16" s="11" t="s">
         <v>27</v>
       </c>
@@ -2043,8 +2073,11 @@
       <c r="V16" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="17" ht="18" customHeight="1" spans="1:22">
+      <c r="W16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" ht="18" customHeight="1" spans="1:23">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="17"/>
@@ -2069,8 +2102,11 @@
       <c r="V17" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" ht="18" customHeight="1" spans="1:22">
+      <c r="W17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" ht="18" customHeight="1" spans="1:23">
       <c r="A18" s="11" t="s">
         <v>29</v>
       </c>
@@ -2097,8 +2133,11 @@
       <c r="V18" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" ht="18" customHeight="1" spans="1:22">
+      <c r="W18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" ht="18" customHeight="1" spans="1:23">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="17"/>
@@ -2125,8 +2164,11 @@
       <c r="V19" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="20" ht="18" customHeight="1" spans="1:22">
+      <c r="W19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" ht="18" customHeight="1" spans="1:23">
       <c r="A20" s="19" t="s">
         <v>31</v>
       </c>
@@ -2153,8 +2195,11 @@
       <c r="V20" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="21" ht="18" customHeight="1" spans="1:22">
+      <c r="W20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" ht="18" customHeight="1" spans="1:23">
       <c r="A21" s="21"/>
       <c r="B21" s="16"/>
       <c r="C21" s="17"/>
@@ -2181,8 +2226,11 @@
       <c r="V21" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="22" ht="18" customHeight="1" spans="1:22">
+      <c r="W21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" ht="18" customHeight="1" spans="1:23">
       <c r="A22" s="19" t="s">
         <v>33</v>
       </c>
@@ -2211,8 +2259,11 @@
       <c r="V22" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="23" ht="18" customHeight="1" spans="1:22">
+      <c r="W22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" ht="18" customHeight="1" spans="1:23">
       <c r="A23" s="21"/>
       <c r="B23" s="16"/>
       <c r="C23" s="17"/>
@@ -2239,8 +2290,11 @@
       <c r="V23" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="24" ht="18" customHeight="1" spans="1:22">
+      <c r="W23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" ht="18" customHeight="1" spans="1:23">
       <c r="A24" s="19" t="s">
         <v>36</v>
       </c>
@@ -2269,8 +2323,11 @@
       <c r="V24" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="25" ht="18" customHeight="1" spans="1:22">
+      <c r="W24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" ht="18" customHeight="1" spans="1:23">
       <c r="A25" s="21"/>
       <c r="B25" s="16"/>
       <c r="C25" s="17"/>
@@ -2295,8 +2352,11 @@
       <c r="V25" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="26" ht="18" customHeight="1" spans="1:22">
+      <c r="W25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" ht="18" customHeight="1" spans="1:23">
       <c r="A26" s="19" t="s">
         <v>38</v>
       </c>
@@ -2325,8 +2385,11 @@
       <c r="V26" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="27" ht="18" customHeight="1" spans="1:22">
+      <c r="W26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" ht="18" customHeight="1" spans="1:23">
       <c r="A27" s="21"/>
       <c r="B27" s="16"/>
       <c r="C27" s="17"/>
@@ -2353,8 +2416,11 @@
       <c r="V27" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="28" ht="18" customHeight="1" spans="1:22">
+      <c r="W27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" ht="18" customHeight="1" spans="1:23">
       <c r="A28" s="19" t="s">
         <v>40</v>
       </c>
@@ -2383,8 +2449,11 @@
       <c r="V28" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="29" ht="18" customHeight="1" spans="1:22">
+      <c r="W28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" ht="18" customHeight="1" spans="1:23">
       <c r="A29" s="21"/>
       <c r="B29" s="16"/>
       <c r="C29" s="17"/>
@@ -2411,8 +2480,11 @@
       <c r="V29" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" ht="18" customHeight="1" spans="1:22">
+      <c r="W29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" ht="18" customHeight="1" spans="1:23">
       <c r="A30" s="19" t="s">
         <v>21</v>
       </c>
@@ -2439,8 +2511,11 @@
       <c r="V30" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" ht="18" customHeight="1" spans="1:22">
+      <c r="W30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" ht="18" customHeight="1" spans="1:23">
       <c r="A31" s="21"/>
       <c r="B31" s="16"/>
       <c r="C31" s="17"/>
@@ -2467,8 +2542,11 @@
       <c r="V31" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="32" ht="18" customHeight="1" spans="1:22">
+      <c r="W31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" ht="18" customHeight="1" spans="1:23">
       <c r="A32" s="19" t="s">
         <v>23</v>
       </c>
@@ -2497,8 +2575,11 @@
       <c r="V32" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="33" ht="18" customHeight="1" spans="1:22">
+      <c r="W32" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" ht="18" customHeight="1" spans="1:23">
       <c r="A33" s="21"/>
       <c r="B33" s="16"/>
       <c r="C33" s="17"/>
@@ -2523,6 +2604,9 @@
       <c r="T33" s="45"/>
       <c r="U33" s="46"/>
       <c r="V33" t="s">
+        <v>28</v>
+      </c>
+      <c r="W33" t="s">
         <v>28</v>
       </c>
     </row>
